--- a/server/export2_new.xlsx
+++ b/server/export2_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>17 December 2019 S3604</t>
+  </si>
+  <si>
+    <t>19 December 2019 B2530</t>
+  </si>
+  <si>
+    <t>23 December 2019 B2530</t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B9" sqref="B9"/>
@@ -713,6 +719,36 @@
         <v>12</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/server/export2_new.xlsx
+++ b/server/export2_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>23 December 2019 B2530</t>
+  </si>
+  <si>
+    <t>mmand</t>
+  </si>
+  <si>
+    <t>30 December 2019 S3907</t>
+  </si>
+  <si>
+    <t>ngraham</t>
+  </si>
+  <si>
+    <t>31 December 2019 S3928</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B9" sqref="B9"/>
@@ -749,6 +761,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
